--- a/eflow-diga/build/2.0.0-draft/StructureDefinition-GEM-ERP-PR-MedicationDispense-DiGA.xlsx
+++ b/eflow-diga/build/2.0.0-draft/StructureDefinition-GEM-ERP-PR-MedicationDispense-DiGA.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$98</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="587">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://gematik.de/fhir/erp-diga/StructureDefinition/GEM_ERP_PR_MedicationDispense_DiGA</t>
+    <t>https://gematik.de/fhir/erp-diga/StructureDefinition/GEM-ERP-PR-MedicationDispense-DiGA</t>
   </si>
   <si>
     <t>Version</t>
@@ -452,26 +452,7 @@
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>Slicing fuer meta profile</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>MedicationDispense.meta.profile:workflowProfile</t>
-  </si>
-  <si>
-    <t>workflowProfile</t>
-  </si>
-  <si>
-    <t>https://gematik.de/fhir/erp-diga/StructureDefinition/GEM_ERP_PR_MedicationDispense_DiGA|2.0</t>
   </si>
   <si>
     <t>MedicationDispense.meta.security</t>
@@ -2306,7 +2287,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO99"/>
+  <dimension ref="A1:AO98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2727,7 +2708,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>88</v>
@@ -3425,13 +3406,13 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
@@ -3487,19 +3468,19 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3529,28 +3510,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
@@ -3559,16 +3538,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3576,31 +3555,31 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>78</v>
@@ -3618,7 +3597,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3627,7 +3606,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>100</v>
@@ -3636,7 +3615,7 @@
         <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>78</v>
@@ -3645,15 +3624,15 @@
         <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3676,16 +3655,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3711,13 +3690,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3735,7 +3714,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3744,7 +3723,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>100</v>
@@ -3753,7 +3732,7 @@
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -3762,15 +3741,15 @@
         <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3781,28 +3760,28 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3828,40 +3807,40 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>100</v>
@@ -3870,7 +3849,7 @@
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3879,15 +3858,15 @@
         <v>78</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3904,13 +3883,13 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>168</v>
@@ -3945,13 +3924,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3969,7 +3948,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -4001,14 +3980,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4027,16 +4006,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4062,13 +4041,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -4086,7 +4065,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -4104,7 +4083,7 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -4118,21 +4097,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -4144,16 +4123,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4203,25 +4182,25 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -4235,14 +4214,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4261,16 +4240,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4308,19 +4287,19 @@
         <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4332,13 +4311,13 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -4352,12 +4331,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>108</v>
       </c>
@@ -4366,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -4378,10 +4359,10 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>198</v>
@@ -4425,19 +4406,19 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4446,7 +4427,7 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>117</v>
@@ -4455,7 +4436,7 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4467,15 +4448,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>108</v>
@@ -4488,7 +4469,7 @@
         <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>78</v>
@@ -4497,13 +4478,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>112</v>
@@ -4556,7 +4537,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4565,7 +4546,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -4574,7 +4555,7 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4588,13 +4569,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>108</v>
@@ -4616,13 +4597,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>112</v>
@@ -4675,7 +4656,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4684,7 +4665,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
@@ -4693,7 +4674,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4705,18 +4686,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="D21" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4726,7 +4707,7 @@
         <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
@@ -4735,17 +4716,15 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4794,7 +4773,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4803,7 +4782,7 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>117</v>
@@ -4812,7 +4791,7 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4826,13 +4805,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -4854,13 +4833,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4911,7 +4890,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4943,44 +4922,46 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -5016,19 +4997,19 @@
         <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -5046,7 +5027,7 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -5060,18 +5041,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>80</v>
@@ -5080,13 +5061,13 @@
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>224</v>
@@ -5095,11 +5076,9 @@
         <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O24" t="s" s="2">
         <v>226</v>
       </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -5135,11 +5114,9 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
@@ -5147,7 +5124,7 @@
         <v>115</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5156,44 +5133,46 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -5205,16 +5184,16 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5225,7 +5204,7 @@
         <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>78</v>
@@ -5252,17 +5231,19 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5271,25 +5252,25 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -5297,7 +5278,7 @@
         <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>240</v>
@@ -5307,7 +5288,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
@@ -5328,10 +5309,10 @@
         <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5342,7 +5323,7 @@
         <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>78</v>
@@ -5381,7 +5362,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5390,46 +5371,44 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -5441,16 +5420,16 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5461,7 +5440,7 @@
         <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>78</v>
@@ -5500,7 +5479,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5509,33 +5488,33 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5543,31 +5522,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5575,7 +5554,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>78</v>
@@ -5593,13 +5572,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5617,42 +5596,42 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5660,39 +5639,37 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>78</v>
@@ -5710,66 +5687,66 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5783,7 +5760,7 @@
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>78</v>
@@ -5792,15 +5769,17 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5825,13 +5804,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5849,7 +5828,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5858,16 +5837,16 @@
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5876,15 +5855,15 @@
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5892,7 +5871,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5904,19 +5883,19 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5942,13 +5921,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5966,42 +5945,42 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6009,32 +5988,30 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>103</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -6083,53 +6060,53 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>105</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>106</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -6141,15 +6118,17 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -6186,31 +6165,31 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6230,21 +6209,23 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="D34" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -6256,17 +6237,15 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -6303,16 +6282,16 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>116</v>
@@ -6333,7 +6312,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -6350,11 +6329,9 @@
         <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C35" t="s" s="2">
         <v>299</v>
       </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6375,13 +6352,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6432,25 +6409,25 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -6464,21 +6441,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6490,15 +6467,17 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6535,31 +6514,31 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6579,21 +6558,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6605,16 +6584,16 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>110</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6622,7 +6601,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
@@ -6652,37 +6631,37 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6696,10 +6675,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6722,28 +6701,26 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N38" t="s" s="2">
         <v>312</v>
       </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S38" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="S38" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="T38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6757,13 +6734,11 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6781,25 +6756,25 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6813,7 +6788,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>316</v>
@@ -6824,7 +6799,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -6836,10 +6811,10 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>317</v>
@@ -6847,7 +6822,9 @@
       <c r="M39" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6857,7 +6834,7 @@
         <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>78</v>
@@ -6872,38 +6849,40 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF39" t="s" s="2">
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI39" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>100</v>
@@ -6912,7 +6891,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6952,7 +6931,7 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>323</v>
@@ -6987,13 +6966,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -7011,7 +6990,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7020,7 +6999,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -7029,7 +7008,7 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -7041,12 +7020,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7060,7 +7039,7 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
@@ -7069,16 +7048,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7104,32 +7083,32 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7137,7 +7116,7 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -7146,7 +7125,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -7155,10 +7134,10 @@
         <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>335</v>
       </c>
@@ -7177,26 +7156,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7245,7 +7222,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>105</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7254,16 +7231,16 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -7272,26 +7249,26 @@
         <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -7303,15 +7280,17 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7348,31 +7327,31 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -7392,44 +7371,46 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>110</v>
+        <v>338</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7453,49 +7434,49 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>116</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>106</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -7504,15 +7485,15 @@
         <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7529,25 +7510,25 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7572,13 +7553,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7596,7 +7577,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7605,7 +7586,7 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>100</v>
@@ -7614,7 +7595,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7623,15 +7604,15 @@
         <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>196</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7639,13 +7620,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>78</v>
@@ -7654,32 +7635,32 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>78</v>
@@ -7691,13 +7672,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7715,7 +7696,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7724,7 +7705,7 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>100</v>
@@ -7733,7 +7714,7 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7742,15 +7723,15 @@
         <v>78</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7773,32 +7754,30 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>78</v>
@@ -7834,7 +7813,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7852,7 +7831,7 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7861,15 +7840,15 @@
         <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7877,13 +7856,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>78</v>
@@ -7892,16 +7871,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>102</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7915,7 +7894,7 @@
         <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>78</v>
@@ -7951,7 +7930,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7960,16 +7939,16 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>379</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7978,15 +7957,15 @@
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8009,16 +7988,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8068,7 +8047,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8077,16 +8056,16 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>385</v>
+        <v>249</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -8095,15 +8074,15 @@
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8117,7 +8096,7 @@
         <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>78</v>
@@ -8126,16 +8105,16 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8185,7 +8164,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8194,16 +8173,16 @@
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>394</v>
+        <v>190</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -8212,15 +8191,15 @@
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8228,7 +8207,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
@@ -8243,7 +8222,7 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>102</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>397</v>
@@ -8302,42 +8281,42 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL51" t="s" s="2">
-        <v>196</v>
+        <v>401</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8345,32 +8324,30 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>402</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>103</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8419,7 +8396,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>401</v>
+        <v>105</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8428,44 +8405,44 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>407</v>
+        <v>106</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8477,15 +8454,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8522,31 +8501,31 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8566,21 +8545,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8589,19 +8568,19 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>110</v>
+        <v>317</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8639,37 +8618,37 @@
         <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8683,10 +8662,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8709,7 +8688,7 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>323</v>
@@ -8744,13 +8723,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8768,7 +8747,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8777,7 +8756,7 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8786,7 +8765,7 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8798,12 +8777,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8811,13 +8790,13 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>78</v>
@@ -8826,16 +8805,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>329</v>
+        <v>236</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8861,13 +8840,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8885,7 +8864,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8894,7 +8873,7 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
@@ -8903,7 +8882,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8912,15 +8891,15 @@
         <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8928,13 +8907,13 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>78</v>
@@ -8943,16 +8922,16 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>416</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>242</v>
+        <v>412</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9002,7 +8981,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9011,7 +8990,7 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
@@ -9020,7 +8999,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -9029,15 +9008,15 @@
         <v>78</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9057,19 +9036,19 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>102</v>
+        <v>414</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>399</v>
+        <v>248</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9119,7 +9098,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9128,16 +9107,16 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>196</v>
+        <v>418</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -9165,7 +9144,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -9186,7 +9165,7 @@
         <v>422</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9242,23 +9221,23 @@
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM59" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
       </c>
@@ -9266,7 +9245,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>425</v>
       </c>
@@ -9279,13 +9258,13 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>78</v>
@@ -9302,9 +9281,7 @@
       <c r="M60" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9362,19 +9339,19 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9383,7 +9360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>431</v>
       </c>
@@ -9396,13 +9373,13 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>78</v>
@@ -9411,13 +9388,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>432</v>
+        <v>102</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>103</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
+        <v>104</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9468,25 +9445,25 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>431</v>
+        <v>105</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>436</v>
+        <v>106</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9500,21 +9477,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9526,15 +9503,17 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9571,31 +9550,31 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9615,14 +9594,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>108</v>
+        <v>434</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9635,24 +9614,26 @@
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>110</v>
+        <v>435</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>111</v>
+        <v>436</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9688,19 +9669,19 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>116</v>
+        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9718,7 +9699,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9732,45 +9713,45 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9795,13 +9776,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>443</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9819,25 +9800,25 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>196</v>
+        <v>445</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9846,15 +9827,15 @@
         <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9862,13 +9843,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>78</v>
@@ -9877,20 +9858,18 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>278</v>
+        <v>447</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9914,46 +9893,46 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>451</v>
@@ -9965,10 +9944,10 @@
         <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>452</v>
       </c>
@@ -9981,13 +9960,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>78</v>
@@ -9996,17 +9975,15 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>453</v>
+        <v>102</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>454</v>
+        <v>103</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -10055,25 +10032,25 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>452</v>
+        <v>105</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>456</v>
+        <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>457</v>
+        <v>106</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -10087,21 +10064,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -10113,15 +10090,17 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -10158,31 +10137,31 @@
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -10202,21 +10181,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -10225,19 +10204,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>110</v>
+        <v>317</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10275,37 +10254,37 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -10319,10 +10298,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10345,7 +10324,7 @@
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>323</v>
@@ -10380,13 +10359,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -10404,7 +10383,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10413,7 +10392,7 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>100</v>
@@ -10422,7 +10401,7 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -10436,10 +10415,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10447,7 +10426,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -10462,16 +10441,16 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>130</v>
+        <v>457</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10497,32 +10476,32 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10530,7 +10509,7 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>100</v>
@@ -10539,7 +10518,7 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10548,15 +10527,15 @@
         <v>78</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10564,7 +10543,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>88</v>
@@ -10579,16 +10558,16 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>463</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10638,7 +10617,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10647,7 +10626,7 @@
         <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>100</v>
@@ -10656,7 +10635,7 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10665,15 +10644,15 @@
         <v>78</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10693,19 +10672,19 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>102</v>
+        <v>461</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>398</v>
+        <v>463</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>399</v>
+        <v>248</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10755,7 +10734,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10764,16 +10743,16 @@
         <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>196</v>
+        <v>464</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10787,10 +10766,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10801,7 +10780,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10813,16 +10792,16 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10872,42 +10851,42 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>78</v>
+        <v>472</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10918,7 +10897,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10930,17 +10909,15 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>472</v>
+        <v>102</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10989,53 +10966,53 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>471</v>
+        <v>105</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>476</v>
+        <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>477</v>
+        <v>106</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>479</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -11047,15 +11024,17 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -11092,31 +11071,31 @@
         <v>78</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -11134,44 +11113,44 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>110</v>
+        <v>317</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11209,37 +11188,37 @@
         <v>78</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -11251,12 +11230,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11264,13 +11243,13 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>78</v>
@@ -11279,7 +11258,7 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>323</v>
@@ -11314,13 +11293,13 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -11338,7 +11317,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11347,7 +11326,7 @@
         <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>100</v>
@@ -11356,7 +11335,7 @@
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -11370,10 +11349,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11396,16 +11375,16 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11431,13 +11410,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -11455,7 +11434,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11464,7 +11443,7 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>100</v>
@@ -11473,7 +11452,7 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -11482,15 +11461,15 @@
         <v>78</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11513,16 +11492,16 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11572,7 +11551,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11581,7 +11560,7 @@
         <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>100</v>
@@ -11590,7 +11569,7 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11599,15 +11578,15 @@
         <v>78</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11627,19 +11606,19 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>102</v>
+        <v>272</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>398</v>
+        <v>482</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11665,13 +11644,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11689,7 +11668,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11698,7 +11677,7 @@
         <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>100</v>
@@ -11707,24 +11686,24 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>196</v>
+        <v>484</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11747,16 +11726,16 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>278</v>
+        <v>488</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11782,13 +11761,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>489</v>
+        <v>78</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -11806,7 +11785,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11815,33 +11794,33 @@
         <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>100</v>
+        <v>492</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11864,16 +11843,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11923,7 +11902,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11932,10 +11911,10 @@
         <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -11947,18 +11926,18 @@
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>501</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11978,10 +11957,10 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>503</v>
@@ -11989,9 +11968,7 @@
       <c r="M83" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N83" t="s" s="2">
-        <v>497</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -12040,7 +12017,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12049,10 +12026,10 @@
         <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>498</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -12064,18 +12041,18 @@
         <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>78</v>
+        <v>506</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12083,22 +12060,22 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>509</v>
@@ -12155,37 +12132,37 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>513</v>
-      </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
         <v>514</v>
       </c>
@@ -12198,13 +12175,13 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>78</v>
@@ -12213,7 +12190,7 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>515</v>
@@ -12221,7 +12198,9 @@
       <c r="M85" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -12279,25 +12258,25 @@
         <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AM85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AL85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>513</v>
       </c>
     </row>
     <row r="86" hidden="true">
@@ -12316,7 +12295,7 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12328,16 +12307,16 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12393,28 +12372,28 @@
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>525</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" hidden="true">
@@ -12454,7 +12433,7 @@
         <v>529</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>254</v>
+        <v>530</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12513,33 +12492,33 @@
         <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>78</v>
+        <v>531</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>78</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12553,7 +12532,7 @@
         <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>78</v>
@@ -12562,16 +12541,16 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12621,7 +12600,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12630,16 +12609,16 @@
         <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>100</v>
+        <v>538</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>537</v>
+        <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
@@ -12648,7 +12627,7 @@
         <v>78</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>539</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89">
@@ -12667,7 +12646,7 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>89</v>
@@ -12679,10 +12658,10 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>542</v>
@@ -12744,31 +12723,31 @@
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AK89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL89" t="s" s="2">
+      <c r="AM89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AM89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO89" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
         <v>546</v>
       </c>
@@ -12784,10 +12763,10 @@
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>78</v>
@@ -12796,17 +12775,15 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>432</v>
+        <v>102</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>547</v>
+        <v>103</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -12855,7 +12832,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>546</v>
+        <v>105</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12864,22 +12841,22 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>550</v>
+        <v>106</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>551</v>
+        <v>78</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>78</v>
@@ -12887,21 +12864,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12913,15 +12890,17 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12958,31 +12937,31 @@
         <v>78</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -13002,14 +12981,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>108</v>
+        <v>434</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13022,24 +13001,26 @@
         <v>78</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>110</v>
+        <v>435</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>111</v>
+        <v>436</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
       </c>
@@ -13075,19 +13056,19 @@
         <v>78</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>116</v>
+        <v>437</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13105,7 +13086,7 @@
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
@@ -13119,46 +13100,42 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>109</v>
+        <v>550</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>441</v>
+        <v>551</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>78</v>
       </c>
@@ -13206,25 +13183,25 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>443</v>
+        <v>549</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>196</v>
+        <v>553</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>78</v>
@@ -13238,10 +13215,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13249,7 +13226,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -13264,15 +13241,17 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13297,13 +13276,13 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>78</v>
+        <v>557</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>78</v>
@@ -13321,16 +13300,16 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>100</v>
@@ -13339,24 +13318,24 @@
         <v>78</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AM94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO94" t="s" s="2">
-        <v>78</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13367,7 +13346,7 @@
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>78</v>
@@ -13379,16 +13358,16 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13414,13 +13393,13 @@
         <v>78</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>78</v>
@@ -13438,16 +13417,16 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>100</v>
@@ -13456,24 +13435,24 @@
         <v>78</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>490</v>
+        <v>566</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>566</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13496,16 +13475,16 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>278</v>
+        <v>569</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>447</v>
+        <v>248</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13531,13 +13510,13 @@
         <v>78</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>570</v>
+        <v>78</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>571</v>
+        <v>78</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>78</v>
@@ -13555,7 +13534,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13564,10 +13543,10 @@
         <v>80</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -13582,7 +13561,7 @@
         <v>573</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" hidden="true">
@@ -13594,7 +13573,7 @@
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>78</v>
+        <v>575</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13613,16 +13592,16 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>254</v>
+        <v>579</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13681,22 +13660,22 @@
         <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>579</v>
+        <v>78</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>78</v>
@@ -13704,14 +13683,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>581</v>
+        <v>78</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13789,7 +13768,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13798,10 +13777,10 @@
         <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
@@ -13819,125 +13798,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO99">
+  <autoFilter ref="A1:AO98">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13947,7 +13809,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/eflow-diga/build/2.0.0-draft/StructureDefinition-GEM-ERP-PR-MedicationDispense-DiGA.xlsx
+++ b/eflow-diga/build/2.0.0-draft/StructureDefinition-GEM-ERP-PR-MedicationDispense-DiGA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="588">
   <si>
     <t>Property</t>
   </si>
@@ -631,7 +631,7 @@
 </t>
   </si>
   <si>
-    <t>Extension</t>
+    <t>Optional Extensions Element</t>
   </si>
   <si>
     <t>This extension is used to track medication prescription transactions between the E-Rezept-Fachdienst and the ePA. The RxPrescriptionProcessIdentifier is generated by the ePA Medication Service and consists of the PrescriptionId and the authoredOn date of the operation parameters request. It ensures consistent referencing and management of medication-related resources across different systems.</t>
@@ -677,6 +677,9 @@
   <si>
     <t xml:space="preserve">Extension {https://gematik.de/fhir/erp-diga/StructureDefinition/GEM_ERP_EX_RedeemCode}
 </t>
+  </si>
+  <si>
+    <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
@@ -4436,7 +4439,7 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4719,10 +4722,10 @@
         <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4805,13 +4808,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>191</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -4833,13 +4836,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4922,10 +4925,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4951,16 +4954,16 @@
         <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -5009,7 +5012,7 @@
         <v>115</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -5041,10 +5044,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5067,16 +5070,16 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5114,7 +5117,7 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
@@ -5124,7 +5127,7 @@
         <v>115</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5139,30 +5142,30 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
@@ -5184,16 +5187,16 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5204,7 +5207,7 @@
         <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>78</v>
@@ -5243,7 +5246,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5258,30 +5261,30 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
@@ -5303,16 +5306,16 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5323,7 +5326,7 @@
         <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>78</v>
@@ -5362,7 +5365,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5377,27 +5380,27 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5420,16 +5423,16 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5479,7 +5482,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5491,13 +5494,13 @@
         <v>150</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5511,10 +5514,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5540,13 +5543,13 @@
         <v>167</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5554,49 +5557,49 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>88</v>
@@ -5611,16 +5614,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5628,10 +5631,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5654,13 +5657,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5690,10 +5693,10 @@
         <v>157</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5711,7 +5714,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5726,10 +5729,10 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5743,10 +5746,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5769,16 +5772,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5804,13 +5807,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5828,7 +5831,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5846,7 +5849,7 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5855,15 +5858,15 @@
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5886,16 +5889,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5945,7 +5948,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>88</v>
@@ -5960,27 +5963,27 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6092,10 +6095,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6209,13 +6212,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="B34" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="C34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>78</v>
@@ -6237,13 +6240,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6312,7 +6315,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -6326,10 +6329,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6441,10 +6444,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6558,10 +6561,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6587,13 +6590,13 @@
         <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6601,7 +6604,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
@@ -6643,7 +6646,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>88</v>
@@ -6675,10 +6678,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6704,10 +6707,10 @@
         <v>167</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6719,7 +6722,7 @@
         <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>78</v>
@@ -6734,11 +6737,11 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6756,7 +6759,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6788,10 +6791,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6817,13 +6820,13 @@
         <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6873,7 +6876,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6882,7 +6885,7 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>100</v>
@@ -6905,10 +6908,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6934,13 +6937,13 @@
         <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6969,10 +6972,10 @@
         <v>146</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6990,7 +6993,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7022,10 +7025,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7048,16 +7051,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7107,7 +7110,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7125,7 +7128,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -7134,15 +7137,15 @@
         <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7254,10 +7257,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7371,10 +7374,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7400,16 +7403,16 @@
         <v>167</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7434,13 +7437,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7458,7 +7461,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7476,7 +7479,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -7490,10 +7493,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7516,19 +7519,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7556,10 +7559,10 @@
         <v>146</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7577,7 +7580,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7595,7 +7598,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7604,15 +7607,15 @@
         <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7638,29 +7641,29 @@
         <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>78</v>
@@ -7696,7 +7699,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7714,7 +7717,7 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7723,15 +7726,15 @@
         <v>78</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7757,13 +7760,13 @@
         <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7777,7 +7780,7 @@
         <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>78</v>
@@ -7813,7 +7816,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7831,7 +7834,7 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7840,15 +7843,15 @@
         <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7871,16 +7874,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7930,7 +7933,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7942,13 +7945,13 @@
         <v>150</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7957,15 +7960,15 @@
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7988,16 +7991,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8047,7 +8050,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8059,13 +8062,13 @@
         <v>150</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -8074,15 +8077,15 @@
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8108,13 +8111,13 @@
         <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8164,7 +8167,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8196,10 +8199,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8222,16 +8225,16 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8281,7 +8284,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8293,30 +8296,30 @@
         <v>150</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8428,10 +8431,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8545,10 +8548,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8574,13 +8577,13 @@
         <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8630,7 +8633,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8639,7 +8642,7 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -8662,10 +8665,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8691,13 +8694,13 @@
         <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8726,10 +8729,10 @@
         <v>146</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8747,7 +8750,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8779,10 +8782,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8805,16 +8808,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8864,7 +8867,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8882,7 +8885,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8891,15 +8894,15 @@
         <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8925,13 +8928,13 @@
         <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8981,7 +8984,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9013,10 +9016,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9039,16 +9042,16 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9098,7 +9101,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9110,13 +9113,13 @@
         <v>150</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -9130,10 +9133,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9156,16 +9159,16 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9215,7 +9218,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9227,16 +9230,16 @@
         <v>150</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9247,10 +9250,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9273,13 +9276,13 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9330,7 +9333,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9345,10 +9348,10 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -9362,10 +9365,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9477,10 +9480,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9594,14 +9597,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9623,16 +9626,16 @@
         <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9681,7 +9684,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9713,10 +9716,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9739,19 +9742,19 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9779,10 +9782,10 @@
         <v>157</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9800,7 +9803,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9818,7 +9821,7 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9827,15 +9830,15 @@
         <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9858,16 +9861,16 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9917,7 +9920,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>88</v>
@@ -9929,13 +9932,13 @@
         <v>150</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9949,10 +9952,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10064,10 +10067,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10181,10 +10184,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10210,13 +10213,13 @@
         <v>102</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10266,7 +10269,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10275,7 +10278,7 @@
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>100</v>
@@ -10298,10 +10301,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10327,13 +10330,13 @@
         <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10362,10 +10365,10 @@
         <v>146</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -10383,7 +10386,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10415,10 +10418,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10441,16 +10444,16 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10500,7 +10503,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10518,7 +10521,7 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10527,15 +10530,15 @@
         <v>78</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10561,13 +10564,13 @@
         <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10617,7 +10620,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10649,10 +10652,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10675,16 +10678,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10734,7 +10737,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10746,13 +10749,13 @@
         <v>150</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10766,10 +10769,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10792,16 +10795,16 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10851,7 +10854,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10863,30 +10866,30 @@
         <v>150</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10998,10 +11001,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11115,10 +11118,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11144,13 +11147,13 @@
         <v>102</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11200,7 +11203,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11209,7 +11212,7 @@
         <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>100</v>
@@ -11232,10 +11235,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11261,13 +11264,13 @@
         <v>130</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11296,10 +11299,10 @@
         <v>146</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -11317,7 +11320,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11349,10 +11352,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11375,16 +11378,16 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11434,7 +11437,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11452,7 +11455,7 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -11461,15 +11464,15 @@
         <v>78</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11495,13 +11498,13 @@
         <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11551,7 +11554,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11583,10 +11586,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11609,16 +11612,16 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11647,10 +11650,10 @@
         <v>157</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11668,7 +11671,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11686,24 +11689,24 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11726,16 +11729,16 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11785,7 +11788,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11797,30 +11800,30 @@
         <v>150</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11843,16 +11846,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11902,7 +11905,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11914,13 +11917,13 @@
         <v>150</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -11929,15 +11932,15 @@
         <v>78</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11960,13 +11963,13 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12017,7 +12020,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12035,24 +12038,24 @@
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12075,13 +12078,13 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12132,42 +12135,42 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>507</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12190,16 +12193,16 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12249,7 +12252,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12261,30 +12264,30 @@
         <v>150</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12307,16 +12310,16 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12366,7 +12369,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12378,19 +12381,19 @@
         <v>150</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>78</v>
@@ -12398,10 +12401,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12424,16 +12427,16 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12483,7 +12486,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12498,10 +12501,10 @@
         <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
@@ -12510,15 +12513,15 @@
         <v>78</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12541,16 +12544,16 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12600,7 +12603,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12612,13 +12615,13 @@
         <v>150</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
@@ -12632,10 +12635,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12658,16 +12661,16 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12717,7 +12720,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12735,13 +12738,13 @@
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>78</v>
@@ -12749,10 +12752,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12864,10 +12867,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12981,14 +12984,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13010,16 +13013,16 @@
         <v>109</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -13068,7 +13071,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13100,10 +13103,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13126,13 +13129,13 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13183,7 +13186,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>88</v>
@@ -13201,7 +13204,7 @@
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>78</v>
@@ -13215,10 +13218,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13241,16 +13244,16 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13279,10 +13282,10 @@
         <v>157</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>78</v>
@@ -13300,7 +13303,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13318,24 +13321,24 @@
         <v>78</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13358,16 +13361,16 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13396,10 +13399,10 @@
         <v>157</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>78</v>
@@ -13417,7 +13420,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13435,24 +13438,24 @@
         <v>78</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13475,16 +13478,16 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13534,7 +13537,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13546,19 +13549,19 @@
         <v>150</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>78</v>
@@ -13566,14 +13569,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13592,16 +13595,16 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13651,7 +13654,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13663,13 +13666,13 @@
         <v>150</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>78</v>
@@ -13683,10 +13686,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13709,16 +13712,16 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13768,7 +13771,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13780,13 +13783,13 @@
         <v>150</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>78</v>
